--- a/file/planilha_financeira_exercicio.xlsx
+++ b/file/planilha_financeira_exercicio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cursos\excel_tabela_dinamica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D97A89-7624-4159-8B69-E997F7F4DE7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B9E6E-D77A-432F-A367-18AACD7198C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" tabRatio="508" xr2:uid="{CB893231-E0E3-4F78-8D7F-40FF6039F51E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="84">
   <si>
     <t>Data</t>
   </si>
@@ -454,15 +454,15 @@
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
@@ -1183,9 +1183,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Controller!$C$8:$C$22</c:f>
+              <c:f>Controller!$C$8:$C$23</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Alimentação</c:v>
                 </c:pt>
@@ -1220,12 +1220,15 @@
                   <c:v>Transporte</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>Utilidades Dom.</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Utilidades Domésticas</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>Vestuário</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>Viagem</c:v>
                 </c:pt>
               </c:strCache>
@@ -1233,51 +1236,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Controller!$D$8:$D$22</c:f>
+              <c:f>Controller!$D$8:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>800</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>400</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>500</c:v>
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,29 +1722,41 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Controller!$F$8:$F$10</c:f>
+              <c:f>Controller!$F$8:$F$12</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Investimentos</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Venda de ativos</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>Salário</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Trabalho Freelancer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Controller!$G$8:$G$10</c:f>
+              <c:f>Controller!$G$8:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5000</c:v>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,8 +1996,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.31720965163338588"/>
-                      <c:h val="0.12904119312623288"/>
+                      <c:w val="0.32881979746443268"/>
+                      <c:h val="0.14093217957999296"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -2109,8 +2127,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.33774765680766949"/>
-                      <c:h val="0.187079479250992"/>
+                      <c:w val="0.32466934452583029"/>
+                      <c:h val="0.20431862203676809"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -2518,6 +2536,12 @@
         </c:spPr>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:layout>
+            <c:manualLayout>
+              <c:x val="-0.30340270501051803"/>
+              <c:y val="-1.7558731836025621E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2544,7 +2568,7 @@
               <a:endParaRPr lang="pt-BR"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2555,8 +2579,8 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
-                  <c:w val="0.29150111735151951"/>
-                  <c:h val="0.16570995496186877"/>
+                  <c:w val="0.26060684427017361"/>
+                  <c:h val="0.12435541713955427"/>
                 </c:manualLayout>
               </c15:layout>
             </c:ext>
@@ -2615,8 +2639,8 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
               <c15:layout>
                 <c:manualLayout>
-                  <c:w val="0.27853398579673666"/>
-                  <c:h val="0.16570995496186877"/>
+                  <c:w val="0.27807671819477048"/>
+                  <c:h val="0.12435541713955427"/>
                 </c:manualLayout>
               </c15:layout>
             </c:ext>
@@ -2687,7 +2711,13 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:dLblPos val="inEnd"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30340270501051803"/>
+                  <c:y val="-1.7558731836025621E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2698,8 +2728,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.29150111735151951"/>
-                      <c:h val="0.16570995496186877"/>
+                      <c:w val="0.26060684427017361"/>
+                      <c:h val="0.12435541713955427"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -2721,8 +2751,8 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.27853398579673666"/>
-                      <c:h val="0.16570995496186877"/>
+                      <c:w val="0.27807671819477048"/>
+                      <c:h val="0.12435541713955427"/>
                     </c:manualLayout>
                   </c15:layout>
                 </c:ext>
@@ -2804,10 +2834,10 @@
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6500</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4770</c:v>
+                  <c:v>15700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5139,8 +5169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2429809" y="6017723"/>
-          <a:ext cx="11743391" cy="3897890"/>
+          <a:off x="2424517" y="6017723"/>
+          <a:ext cx="11617714" cy="3897890"/>
           <a:chOff x="2420339" y="4786571"/>
           <a:chExt cx="11510558" cy="3764205"/>
         </a:xfrm>
@@ -5397,8 +5427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2429809" y="1698136"/>
-          <a:ext cx="4444066" cy="3913721"/>
+          <a:off x="2424517" y="1698136"/>
+          <a:ext cx="4397764" cy="3913721"/>
           <a:chOff x="2420339" y="620720"/>
           <a:chExt cx="4620264" cy="3773353"/>
         </a:xfrm>
@@ -5733,8 +5763,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2429809" y="226218"/>
-          <a:ext cx="11799205" cy="1166813"/>
+          <a:off x="2424517" y="226218"/>
+          <a:ext cx="11673528" cy="1166813"/>
           <a:chOff x="2424517" y="226218"/>
           <a:chExt cx="11673528" cy="1166813"/>
         </a:xfrm>
@@ -6368,8 +6398,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10932582" y="1695755"/>
-          <a:ext cx="3203436" cy="3913721"/>
+          <a:off x="10834687" y="1695755"/>
+          <a:ext cx="3170362" cy="3913721"/>
           <a:chOff x="10834687" y="1695755"/>
           <a:chExt cx="3170362" cy="3913721"/>
         </a:xfrm>
@@ -6699,8 +6729,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7294826" y="1693374"/>
-          <a:ext cx="3203435" cy="3913721"/>
+          <a:off x="7236618" y="1693374"/>
+          <a:ext cx="3170362" cy="3913721"/>
           <a:chOff x="7294826" y="1693374"/>
           <a:chExt cx="3203435" cy="3913721"/>
         </a:xfrm>
@@ -6982,7 +7012,8 @@
                   <a:ea typeface="Calibri"/>
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
-                <a:t>R$ 1.730,00</a:t>
+                <a:pPr/>
+                <a:t>R$ 5.100,00</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="1800" b="1">
                 <a:solidFill>
@@ -7242,6 +7273,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>R$ 15.953,00</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="2000" b="1">
@@ -7259,15 +7291,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>115094</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>163023</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>264583</xdr:colOff>
+      <xdr:colOff>309563</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>42374</xdr:rowOff>
+      <xdr:rowOff>30468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Controller!$J10">
       <xdr:nvSpPr>
@@ -7282,8 +7314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12710583" y="5116023"/>
-          <a:ext cx="1365250" cy="260351"/>
+          <a:off x="12580938" y="5095875"/>
+          <a:ext cx="1408906" cy="268593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7854,14 +7886,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D910A2B-316C-4A2D-8C12-A7E5E2220A46}" name="tbl_entrada" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="F7:G10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602B53E0-DF65-4558-9C66-48AFA09CA206}" name="tbl_saida" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="C7:D23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="1" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -7908,126 +7940,7 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" item="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Soma de Valor" fld="5" baseField="2" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{602B53E0-DF65-4558-9C66-48AFA09CA206}" name="tbl_saida" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="C7:D22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="1" showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="23">
-        <item x="1"/>
-        <item x="13"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item m="1" x="21"/>
-        <item x="16"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item m="1" x="20"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="11"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item x="0"/>
-        <item m="1" x="19"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="15">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -8060,6 +7973,9 @@
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
     </i>
     <i>
       <x v="15"/>
@@ -8115,15 +8031,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B94E5BBF-FA2B-465F-852B-C57F37D1DFA8}" name="tbl_saldo" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="I7:J10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField numFmtId="1" showAll="0">
       <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -8241,6 +8157,131 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D910A2B-316C-4A2D-8C12-A7E5E2220A46}" name="tbl_entrada" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="F7:G12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item x="1"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item m="1" x="21"/>
+        <item x="16"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item m="1" x="20"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="0"/>
+        <item m="1" x="19"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="5" baseField="2" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Mês" xr10:uid="{AADD8D2B-8FEE-49E0-A994-4DBC099B4D8F}" sourceName="Mês">
   <pivotTables>
@@ -8251,8 +8292,8 @@
   <data>
     <tabular pivotCacheId="1275526693">
       <items count="3">
-        <i x="0"/>
-        <i x="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -8595,8 +8636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D0F952-AFB8-4FCC-B048-D2CD889C31B1}">
   <dimension ref="A20:U20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9901,7 +9942,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="C1:J22"/>
+  <dimension ref="C1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -9912,18 +9953,18 @@
     <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -9965,19 +10006,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="J8" s="2">
-        <v>6500</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
@@ -9985,19 +10026,19 @@
         <v>37</v>
       </c>
       <c r="D9" s="2">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
-        <v>5000</v>
+        <v>1500</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="2">
-        <v>4770</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
@@ -10005,19 +10046,19 @@
         <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2">
-        <v>6500</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="2">
-        <v>11270</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -10025,14 +10066,20 @@
         <v>31</v>
       </c>
       <c r="D11" s="2">
-        <v>300</v>
-      </c>
-      <c r="I11" s="23" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3500</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <f>GETPIVOTDATA("Valor",$I$7,"Tipo","ENTRADA")-GETPIVOTDATA("Valor",$I$7,"Tipo","SAÍDA")</f>
-        <v>1730</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
@@ -10040,7 +10087,13 @@
         <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>220</v>
+        <v>570</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20800</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
@@ -10048,7 +10101,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="2">
-        <v>180</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
@@ -10056,7 +10109,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="2">
-        <v>150</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
@@ -10064,7 +10117,7 @@
         <v>35</v>
       </c>
       <c r="D15" s="2">
-        <v>250</v>
+        <v>830</v>
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
@@ -10072,7 +10125,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>120</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -10080,7 +10133,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="2">
-        <v>450</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -10088,39 +10141,47 @@
         <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
-        <v>400</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="2">
-        <v>4770</v>
+      <c r="D23" s="2">
+        <v>15700</v>
       </c>
     </row>
   </sheetData>
@@ -10181,10 +10242,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <f>D5-D4</f>
         <v>15953</v>
       </c>
